--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_39.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_39.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yoko Suzuki</t>
+          <t>Taro Fujita</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
